--- a/scheme/Itcd2/issues_metadados_itcd2.xlsx
+++ b/scheme/Itcd2/issues_metadados_itcd2.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59402,7 +59402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59413,356 +59413,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD07</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>33</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30</v>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD07</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD_AUD</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>37</v>
-      </c>
-      <c r="H3" t="n">
-        <v>30</v>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD07</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>32</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30</v>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD09</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with column names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SEQ_COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>37</v>
-      </c>
-      <c r="H5" t="n">
-        <v>30</v>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD09</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with column names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD_AUD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SEQ_COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD09</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names longer than recommended</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SEQ_COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>36</v>
-      </c>
-      <c r="H7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CESSAO_BEM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VLR_CEDIDO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DOADOR_AUTOR_HERANCA_AUD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VLR_PERCENTUAL_PROPRIEDADE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ISENCAO_NAO_INCIDENCIA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>DSC_MOTIVO_ALTERACAO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ITCD2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PENDENCIA_AUD</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DSC_MOTIVO_CANCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59775,7 +59513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59786,94 +59524,356 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
+          <t>Total number of tables with names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>947</v>
+          <t>Total number of tables with names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD_AUD</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
+          <t>Total number of tables with names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
+          <t>Total number of tables with column names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SEQ_COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
+          <t>Total number of tables with column names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_DEBITO_GUIA_ITCD_AUD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SEQ_COMPOSICAO_MULTA_DEBITO_GUIA_ITCD</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total number of tables with column names longer than recommended</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SEQ_COMPOSICAO_MULTA_MEMORIA_CALCULO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CESSAO_BEM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VLR_CEDIDO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DOADOR_AUTOR_HERANCA_AUD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VLR_PERCENTUAL_PROPRIEDADE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ISENCAO_NAO_INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DSC_MOTIVO_ALTERACAO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ITCD2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PENDENCIA_AUD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DSC_MOTIVO_CANCELAMENTO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59914,46 +59914,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD07</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with names longer than recommended</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD09</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with column names longer than recommended</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -59967,7 +59967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59995,46 +59995,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.58%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96.30%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -60046,46 +60046,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>99.68%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>99.58%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -60097,32 +60097,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>

--- a/scheme/Itcd2/issues_metadados_itcd2.xlsx
+++ b/scheme/Itcd2/issues_metadados_itcd2.xlsx
@@ -59430,7 +59430,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -59445,7 +59445,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -59460,7 +59460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -59475,7 +59475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -59490,7 +59490,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -59566,7 +59566,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME11</t>
+          <t>MQME013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -59596,7 +59596,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME11</t>
+          <t>MQME013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -59626,7 +59626,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME11</t>
+          <t>MQME013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -59656,7 +59656,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME13</t>
+          <t>MQME015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -59690,7 +59690,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME13</t>
+          <t>MQME015</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -59724,7 +59724,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME13</t>
+          <t>MQME015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -59758,7 +59758,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -59788,7 +59788,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -59818,7 +59818,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -59848,7 +59848,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -59886,7 +59886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59914,45 +59914,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>947</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>692</v>
       </c>
     </row>
@@ -59967,7 +59952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59995,46 +59980,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>99.58%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>96.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -60046,46 +60031,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.68%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.58%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -60097,15 +60082,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
